--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il17c-Il17ra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il17c-Il17ra.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2334313333333333</v>
+        <v>0.972865</v>
       </c>
       <c r="H2">
-        <v>0.700294</v>
+        <v>2.918595</v>
       </c>
       <c r="I2">
-        <v>0.02791645656725418</v>
+        <v>0.09902013125533424</v>
       </c>
       <c r="J2">
-        <v>0.02791645656725418</v>
+        <v>0.09902013125533422</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4083256666666666</v>
+        <v>1.571044333333333</v>
       </c>
       <c r="N2">
-        <v>1.224977</v>
+        <v>4.713133</v>
       </c>
       <c r="O2">
-        <v>0.003979916089122618</v>
+        <v>0.01424869640426471</v>
       </c>
       <c r="P2">
-        <v>0.003979916089122619</v>
+        <v>0.01424869640426471</v>
       </c>
       <c r="Q2">
-        <v>0.09531600480422221</v>
+        <v>1.528414045348333</v>
       </c>
       <c r="R2">
-        <v>0.8578440432379999</v>
+        <v>13.755726408135</v>
       </c>
       <c r="S2">
-        <v>0.0001111051546433077</v>
+        <v>0.001410907788167701</v>
       </c>
       <c r="T2">
-        <v>0.0001111051546433077</v>
+        <v>0.0014109077881677</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2334313333333333</v>
+        <v>0.972865</v>
       </c>
       <c r="H3">
-        <v>0.700294</v>
+        <v>2.918595</v>
       </c>
       <c r="I3">
-        <v>0.02791645656725418</v>
+        <v>0.09902013125533424</v>
       </c>
       <c r="J3">
-        <v>0.02791645656725418</v>
+        <v>0.09902013125533422</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>34.29842</v>
       </c>
       <c r="O3">
-        <v>0.1114346094575531</v>
+        <v>0.1036906392681812</v>
       </c>
       <c r="P3">
-        <v>0.1114346094575531</v>
+        <v>0.1036906392681812</v>
       </c>
       <c r="Q3">
-        <v>2.668775303942222</v>
+        <v>11.12257745776667</v>
       </c>
       <c r="R3">
-        <v>24.01897773548</v>
+        <v>100.1031971199</v>
       </c>
       <c r="S3">
-        <v>0.003110859435010712</v>
+        <v>0.01026746071028482</v>
       </c>
       <c r="T3">
-        <v>0.003110859435010713</v>
+        <v>0.01026746071028482</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2334313333333333</v>
+        <v>0.972865</v>
       </c>
       <c r="H4">
-        <v>0.700294</v>
+        <v>2.918595</v>
       </c>
       <c r="I4">
-        <v>0.02791645656725418</v>
+        <v>0.09902013125533424</v>
       </c>
       <c r="J4">
-        <v>0.02791645656725418</v>
+        <v>0.09902013125533422</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.47855766666667</v>
+        <v>26.63538866666667</v>
       </c>
       <c r="N4">
-        <v>58.435673</v>
+        <v>79.906166</v>
       </c>
       <c r="O4">
-        <v>0.1898558708868887</v>
+        <v>0.2415715194463596</v>
       </c>
       <c r="P4">
-        <v>0.1898558708868887</v>
+        <v>0.2415715194463595</v>
       </c>
       <c r="Q4">
-        <v>4.546905687540222</v>
+        <v>25.91263739519667</v>
       </c>
       <c r="R4">
-        <v>40.922151187862</v>
+        <v>233.21373655677</v>
       </c>
       <c r="S4">
-        <v>0.005300103173652045</v>
+        <v>0.02392044356312906</v>
       </c>
       <c r="T4">
-        <v>0.005300103173652045</v>
+        <v>0.02392044356312905</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2334313333333333</v>
+        <v>0.972865</v>
       </c>
       <c r="H5">
-        <v>0.700294</v>
+        <v>2.918595</v>
       </c>
       <c r="I5">
-        <v>0.02791645656725418</v>
+        <v>0.09902013125533424</v>
       </c>
       <c r="J5">
-        <v>0.02791645656725418</v>
+        <v>0.09902013125533422</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.610992333333333</v>
+        <v>1.760428</v>
       </c>
       <c r="N5">
-        <v>10.832977</v>
+        <v>5.281284</v>
       </c>
       <c r="O5">
-        <v>0.03519603997086906</v>
+        <v>0.01596632480787212</v>
       </c>
       <c r="P5">
-        <v>0.03519603997086906</v>
+        <v>0.01596632480787212</v>
       </c>
       <c r="Q5">
-        <v>0.8429187550264444</v>
+        <v>1.71265878622</v>
       </c>
       <c r="R5">
-        <v>7.586268795237999</v>
+        <v>15.41392907598</v>
       </c>
       <c r="S5">
-        <v>0.0009825487211861084</v>
+        <v>0.001580987578140797</v>
       </c>
       <c r="T5">
-        <v>0.0009825487211861084</v>
+        <v>0.001580987578140796</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2334313333333333</v>
+        <v>0.972865</v>
       </c>
       <c r="H6">
-        <v>0.700294</v>
+        <v>2.918595</v>
       </c>
       <c r="I6">
-        <v>0.02791645656725418</v>
+        <v>0.09902013125533424</v>
       </c>
       <c r="J6">
-        <v>0.02791645656725418</v>
+        <v>0.09902013125533422</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>49.25961166666666</v>
+        <v>57.378831</v>
       </c>
       <c r="N6">
-        <v>147.778835</v>
+        <v>172.136493</v>
       </c>
       <c r="O6">
-        <v>0.4801293110387352</v>
+        <v>0.520401318794067</v>
       </c>
       <c r="P6">
-        <v>0.4801293110387352</v>
+        <v>0.520401318794067</v>
       </c>
       <c r="Q6">
-        <v>11.49873683083222</v>
+        <v>55.821856420815</v>
       </c>
       <c r="R6">
-        <v>103.48863147749</v>
+        <v>502.3967077873349</v>
       </c>
       <c r="S6">
-        <v>0.01340350905827852</v>
+        <v>0.05153020689243756</v>
       </c>
       <c r="T6">
-        <v>0.01340350905827853</v>
+        <v>0.05153020689243755</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2334313333333333</v>
+        <v>0.972865</v>
       </c>
       <c r="H7">
-        <v>0.700294</v>
+        <v>2.918595</v>
       </c>
       <c r="I7">
-        <v>0.02791645656725418</v>
+        <v>0.09902013125533424</v>
       </c>
       <c r="J7">
-        <v>0.02791645656725418</v>
+        <v>0.09902013125533422</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.40625766666667</v>
+        <v>11.480313</v>
       </c>
       <c r="N7">
-        <v>55.21877300000001</v>
+        <v>34.440939</v>
       </c>
       <c r="O7">
-        <v>0.1794042525568314</v>
+        <v>0.1041215012792553</v>
       </c>
       <c r="P7">
-        <v>0.1794042525568314</v>
+        <v>0.1041215012792553</v>
       </c>
       <c r="Q7">
-        <v>4.296597268806889</v>
+        <v>11.168794706745</v>
       </c>
       <c r="R7">
-        <v>38.669375419262</v>
+        <v>100.519152360705</v>
       </c>
       <c r="S7">
-        <v>0.005008331024483483</v>
+        <v>0.01031012472317431</v>
       </c>
       <c r="T7">
-        <v>0.005008331024483485</v>
+        <v>0.01031012472317431</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1.401135</v>
       </c>
       <c r="I8">
-        <v>0.0558547186929485</v>
+        <v>0.04753676738514344</v>
       </c>
       <c r="J8">
-        <v>0.05585471869294851</v>
+        <v>0.04753676738514343</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4083256666666666</v>
+        <v>1.571044333333333</v>
       </c>
       <c r="N8">
-        <v>1.224977</v>
+        <v>4.713133</v>
       </c>
       <c r="O8">
-        <v>0.003979916089122618</v>
+        <v>0.01424869640426471</v>
       </c>
       <c r="P8">
-        <v>0.003979916089122619</v>
+        <v>0.01424869640426471</v>
       </c>
       <c r="Q8">
-        <v>0.1907064609883333</v>
+        <v>0.7337484006616666</v>
       </c>
       <c r="R8">
-        <v>1.716358148895</v>
+        <v>6.603735605954999</v>
       </c>
       <c r="S8">
-        <v>0.0002222970935794836</v>
+        <v>0.0006773369665110614</v>
       </c>
       <c r="T8">
-        <v>0.0002222970935794837</v>
+        <v>0.0006773369665110611</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.401135</v>
       </c>
       <c r="I9">
-        <v>0.0558547186929485</v>
+        <v>0.04753676738514344</v>
       </c>
       <c r="J9">
-        <v>0.05585471869294851</v>
+        <v>0.04753676738514343</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>34.29842</v>
       </c>
       <c r="O9">
-        <v>0.1114346094575531</v>
+        <v>0.1036906392681812</v>
       </c>
       <c r="P9">
-        <v>0.1114346094575531</v>
+        <v>0.1036906392681812</v>
       </c>
       <c r="Q9">
         <v>5.339635189633333</v>
@@ -1013,10 +1013,10 @@
         <v>48.05671670669999</v>
       </c>
       <c r="S9">
-        <v>0.006224148763910206</v>
+        <v>0.004929117798908351</v>
       </c>
       <c r="T9">
-        <v>0.006224148763910206</v>
+        <v>0.00492911779890835</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1.401135</v>
       </c>
       <c r="I10">
-        <v>0.0558547186929485</v>
+        <v>0.04753676738514344</v>
       </c>
       <c r="J10">
-        <v>0.05585471869294851</v>
+        <v>0.04753676738514343</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.47855766666667</v>
+        <v>26.63538866666667</v>
       </c>
       <c r="N10">
-        <v>58.435673</v>
+        <v>79.906166</v>
       </c>
       <c r="O10">
-        <v>0.1898558708868887</v>
+        <v>0.2415715194463596</v>
       </c>
       <c r="P10">
-        <v>0.1898558708868887</v>
+        <v>0.2415715194463595</v>
       </c>
       <c r="Q10">
-        <v>9.097362965428331</v>
+        <v>12.43992509982333</v>
       </c>
       <c r="R10">
-        <v>81.87626668885498</v>
+        <v>111.95932589841</v>
       </c>
       <c r="S10">
-        <v>0.01060434626059192</v>
+        <v>0.01148352912679725</v>
       </c>
       <c r="T10">
-        <v>0.01060434626059192</v>
+        <v>0.01148352912679725</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1.401135</v>
       </c>
       <c r="I11">
-        <v>0.0558547186929485</v>
+        <v>0.04753676738514344</v>
       </c>
       <c r="J11">
-        <v>0.05585471869294851</v>
+        <v>0.04753676738514343</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.610992333333333</v>
+        <v>1.760428</v>
       </c>
       <c r="N11">
-        <v>10.832977</v>
+        <v>5.281284</v>
       </c>
       <c r="O11">
-        <v>0.03519603997086906</v>
+        <v>0.01596632480787212</v>
       </c>
       <c r="P11">
-        <v>0.03519603997086906</v>
+        <v>0.01596632480787212</v>
       </c>
       <c r="Q11">
-        <v>1.686495914321666</v>
+        <v>0.8221990952599999</v>
       </c>
       <c r="R11">
-        <v>15.178463228895</v>
+        <v>7.399791857339999</v>
       </c>
       <c r="S11">
-        <v>0.001965864911678663</v>
+        <v>0.0007589874683874622</v>
       </c>
       <c r="T11">
-        <v>0.001965864911678663</v>
+        <v>0.0007589874683874619</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1.401135</v>
       </c>
       <c r="I12">
-        <v>0.0558547186929485</v>
+        <v>0.04753676738514344</v>
       </c>
       <c r="J12">
-        <v>0.05585471869294851</v>
+        <v>0.04753676738514343</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>49.25961166666666</v>
+        <v>57.378831</v>
       </c>
       <c r="N12">
-        <v>147.778835</v>
+        <v>172.136493</v>
       </c>
       <c r="O12">
-        <v>0.4801293110387352</v>
+        <v>0.520401318794067</v>
       </c>
       <c r="P12">
-        <v>0.4801293110387352</v>
+        <v>0.520401318794067</v>
       </c>
       <c r="Q12">
-        <v>23.00645533085833</v>
+        <v>26.79849612439499</v>
       </c>
       <c r="R12">
-        <v>207.0580979777249</v>
+        <v>241.186465119555</v>
       </c>
       <c r="S12">
-        <v>0.02681748760430773</v>
+        <v>0.02473819643843544</v>
       </c>
       <c r="T12">
-        <v>0.02681748760430773</v>
+        <v>0.02473819643843543</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1.401135</v>
       </c>
       <c r="I13">
-        <v>0.0558547186929485</v>
+        <v>0.04753676738514344</v>
       </c>
       <c r="J13">
-        <v>0.05585471869294851</v>
+        <v>0.04753676738514343</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.40625766666667</v>
+        <v>11.480313</v>
       </c>
       <c r="N13">
-        <v>55.21877300000001</v>
+        <v>34.440939</v>
       </c>
       <c r="O13">
-        <v>0.1794042525568314</v>
+        <v>0.1041215012792553</v>
       </c>
       <c r="P13">
-        <v>0.1794042525568314</v>
+        <v>0.1041215012792553</v>
       </c>
       <c r="Q13">
-        <v>8.596550611928333</v>
+        <v>5.361822785085</v>
       </c>
       <c r="R13">
-        <v>77.368955507355</v>
+        <v>48.25640506576499</v>
       </c>
       <c r="S13">
-        <v>0.01002057405888051</v>
+        <v>0.004949599586103874</v>
       </c>
       <c r="T13">
-        <v>0.01002057405888051</v>
+        <v>0.004949599586103872</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4832656666666666</v>
+        <v>1.626590666666667</v>
       </c>
       <c r="H14">
-        <v>1.449797</v>
+        <v>4.879772</v>
       </c>
       <c r="I14">
-        <v>0.05779457625202473</v>
+        <v>0.1655576275352027</v>
       </c>
       <c r="J14">
-        <v>0.05779457625202474</v>
+        <v>0.1655576275352026</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.4083256666666666</v>
+        <v>1.571044333333333</v>
       </c>
       <c r="N14">
-        <v>1.224977</v>
+        <v>4.713133</v>
       </c>
       <c r="O14">
-        <v>0.003979916089122618</v>
+        <v>0.01424869640426471</v>
       </c>
       <c r="P14">
-        <v>0.003979916089122619</v>
+        <v>0.01424869640426471</v>
       </c>
       <c r="Q14">
-        <v>0.1973297755187778</v>
+        <v>2.555446049519555</v>
       </c>
       <c r="R14">
-        <v>1.775967979669</v>
+        <v>22.999014445676</v>
       </c>
       <c r="S14">
-        <v>0.0002300175638894572</v>
+        <v>0.002358980372159439</v>
       </c>
       <c r="T14">
-        <v>0.0002300175638894573</v>
+        <v>0.002358980372159438</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4832656666666666</v>
+        <v>1.626590666666667</v>
       </c>
       <c r="H15">
-        <v>1.449797</v>
+        <v>4.879772</v>
       </c>
       <c r="I15">
-        <v>0.05779457625202473</v>
+        <v>0.1655576275352027</v>
       </c>
       <c r="J15">
-        <v>0.05779457625202474</v>
+        <v>0.1655576275352026</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>34.29842</v>
       </c>
       <c r="O15">
-        <v>0.1114346094575531</v>
+        <v>0.1036906392681812</v>
       </c>
       <c r="P15">
-        <v>0.1114346094575531</v>
+        <v>0.1036906392681812</v>
       </c>
       <c r="Q15">
-        <v>5.525082935637777</v>
+        <v>18.59649661780444</v>
       </c>
       <c r="R15">
-        <v>49.72574642074</v>
+        <v>167.36846956024</v>
       </c>
       <c r="S15">
-        <v>0.006440316033409147</v>
+        <v>0.01716677623484861</v>
       </c>
       <c r="T15">
-        <v>0.006440316033409149</v>
+        <v>0.0171667762348486</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4832656666666666</v>
+        <v>1.626590666666667</v>
       </c>
       <c r="H16">
-        <v>1.449797</v>
+        <v>4.879772</v>
       </c>
       <c r="I16">
-        <v>0.05779457625202473</v>
+        <v>0.1655576275352027</v>
       </c>
       <c r="J16">
-        <v>0.05779457625202474</v>
+        <v>0.1655576275352026</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.47855766666667</v>
+        <v>26.63538866666667</v>
       </c>
       <c r="N16">
-        <v>58.435673</v>
+        <v>79.906166</v>
       </c>
       <c r="O16">
-        <v>0.1898558708868887</v>
+        <v>0.2415715194463596</v>
       </c>
       <c r="P16">
-        <v>0.1898558708868887</v>
+        <v>0.2415715194463595</v>
       </c>
       <c r="Q16">
-        <v>9.413318156486778</v>
+        <v>43.32487460823911</v>
       </c>
       <c r="R16">
-        <v>84.719863408381</v>
+        <v>389.923871474152</v>
       </c>
       <c r="S16">
-        <v>0.01097263960686685</v>
+        <v>0.03999400763961337</v>
       </c>
       <c r="T16">
-        <v>0.01097263960686685</v>
+        <v>0.03999400763961335</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4832656666666666</v>
+        <v>1.626590666666667</v>
       </c>
       <c r="H17">
-        <v>1.449797</v>
+        <v>4.879772</v>
       </c>
       <c r="I17">
-        <v>0.05779457625202473</v>
+        <v>0.1655576275352027</v>
       </c>
       <c r="J17">
-        <v>0.05779457625202474</v>
+        <v>0.1655576275352026</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.610992333333333</v>
+        <v>1.760428</v>
       </c>
       <c r="N17">
-        <v>10.832977</v>
+        <v>5.281284</v>
       </c>
       <c r="O17">
-        <v>0.03519603997086906</v>
+        <v>0.01596632480787212</v>
       </c>
       <c r="P17">
-        <v>0.03519603997086906</v>
+        <v>0.01596632480787212</v>
       </c>
       <c r="Q17">
-        <v>1.745068617296555</v>
+        <v>2.863495754138667</v>
       </c>
       <c r="R17">
-        <v>15.705617555669</v>
+        <v>25.771461787248</v>
       </c>
       <c r="S17">
-        <v>0.002034140215865702</v>
+        <v>0.00264334685564776</v>
       </c>
       <c r="T17">
-        <v>0.002034140215865703</v>
+        <v>0.002643346855647758</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4832656666666666</v>
+        <v>1.626590666666667</v>
       </c>
       <c r="H18">
-        <v>1.449797</v>
+        <v>4.879772</v>
       </c>
       <c r="I18">
-        <v>0.05779457625202473</v>
+        <v>0.1655576275352027</v>
       </c>
       <c r="J18">
-        <v>0.05779457625202474</v>
+        <v>0.1655576275352026</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>49.25961166666666</v>
+        <v>57.378831</v>
       </c>
       <c r="N18">
-        <v>147.778835</v>
+        <v>172.136493</v>
       </c>
       <c r="O18">
-        <v>0.4801293110387352</v>
+        <v>0.520401318794067</v>
       </c>
       <c r="P18">
-        <v>0.4801293110387352</v>
+        <v>0.520401318794067</v>
       </c>
       <c r="Q18">
-        <v>23.80547907183277</v>
+        <v>93.331870968844</v>
       </c>
       <c r="R18">
-        <v>214.249311646495</v>
+        <v>839.986838719596</v>
       </c>
       <c r="S18">
-        <v>0.02774887007766028</v>
+        <v>0.08615640770573642</v>
       </c>
       <c r="T18">
-        <v>0.02774887007766029</v>
+        <v>0.0861564077057364</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4832656666666666</v>
+        <v>1.626590666666667</v>
       </c>
       <c r="H19">
-        <v>1.449797</v>
+        <v>4.879772</v>
       </c>
       <c r="I19">
-        <v>0.05779457625202473</v>
+        <v>0.1655576275352027</v>
       </c>
       <c r="J19">
-        <v>0.05779457625202474</v>
+        <v>0.1655576275352026</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>18.40625766666667</v>
+        <v>11.480313</v>
       </c>
       <c r="N19">
-        <v>55.21877300000001</v>
+        <v>34.440939</v>
       </c>
       <c r="O19">
-        <v>0.1794042525568314</v>
+        <v>0.1041215012792553</v>
       </c>
       <c r="P19">
-        <v>0.1794042525568314</v>
+        <v>0.1041215012792553</v>
       </c>
       <c r="Q19">
-        <v>8.895112382120113</v>
+        <v>18.673769976212</v>
       </c>
       <c r="R19">
-        <v>80.056011439081</v>
+        <v>168.063929785908</v>
       </c>
       <c r="S19">
-        <v>0.01036859275433329</v>
+        <v>0.01723810872719708</v>
       </c>
       <c r="T19">
-        <v>0.0103685927543333</v>
+        <v>0.01723810872719707</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.2300916666666667</v>
+        <v>0.4157176666666667</v>
       </c>
       <c r="H20">
-        <v>0.6902750000000001</v>
+        <v>1.247153</v>
       </c>
       <c r="I20">
-        <v>0.02751706005900576</v>
+        <v>0.04231256949165055</v>
       </c>
       <c r="J20">
-        <v>0.02751706005900576</v>
+        <v>0.04231256949165055</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.4083256666666666</v>
+        <v>1.571044333333333</v>
       </c>
       <c r="N20">
-        <v>1.224977</v>
+        <v>4.713133</v>
       </c>
       <c r="O20">
-        <v>0.003979916089122618</v>
+        <v>0.01424869640426471</v>
       </c>
       <c r="P20">
-        <v>0.003979916089122619</v>
+        <v>0.01424869640426471</v>
       </c>
       <c r="Q20">
-        <v>0.09395233318611111</v>
+        <v>0.6531108844832222</v>
       </c>
       <c r="R20">
-        <v>0.8455709986750001</v>
+        <v>5.877997960349</v>
       </c>
       <c r="S20">
-        <v>0.0001095155900541904</v>
+        <v>0.000602898956770882</v>
       </c>
       <c r="T20">
-        <v>0.0001095155900541904</v>
+        <v>0.0006028989567708817</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.2300916666666667</v>
+        <v>0.4157176666666667</v>
       </c>
       <c r="H21">
-        <v>0.6902750000000001</v>
+        <v>1.247153</v>
       </c>
       <c r="I21">
-        <v>0.02751706005900576</v>
+        <v>0.04231256949165055</v>
       </c>
       <c r="J21">
-        <v>0.02751706005900576</v>
+        <v>0.04231256949165055</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>34.29842</v>
       </c>
       <c r="O21">
-        <v>0.1114346094575531</v>
+        <v>0.1036906392681812</v>
       </c>
       <c r="P21">
-        <v>0.1114346094575531</v>
+        <v>0.1036906392681812</v>
       </c>
       <c r="Q21">
-        <v>2.630593540611111</v>
+        <v>4.752819710917778</v>
       </c>
       <c r="R21">
-        <v>23.6753418655</v>
+        <v>42.77537739826</v>
       </c>
       <c r="S21">
-        <v>0.003066352841095339</v>
+        <v>0.004387417379668588</v>
       </c>
       <c r="T21">
-        <v>0.00306635284109534</v>
+        <v>0.004387417379668588</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.2300916666666667</v>
+        <v>0.4157176666666667</v>
       </c>
       <c r="H22">
-        <v>0.6902750000000001</v>
+        <v>1.247153</v>
       </c>
       <c r="I22">
-        <v>0.02751706005900576</v>
+        <v>0.04231256949165055</v>
       </c>
       <c r="J22">
-        <v>0.02751706005900576</v>
+        <v>0.04231256949165055</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>19.47855766666667</v>
+        <v>26.63538866666667</v>
       </c>
       <c r="N22">
-        <v>58.435673</v>
+        <v>79.906166</v>
       </c>
       <c r="O22">
-        <v>0.1898558708868887</v>
+        <v>0.2415715194463596</v>
       </c>
       <c r="P22">
-        <v>0.1898558708868887</v>
+        <v>0.2415715194463595</v>
       </c>
       <c r="Q22">
-        <v>4.481853797786112</v>
+        <v>11.07280162726645</v>
       </c>
       <c r="R22">
-        <v>40.336684180075</v>
+        <v>99.65521464539799</v>
       </c>
       <c r="S22">
-        <v>0.005224275401749358</v>
+        <v>0.01022151170377771</v>
       </c>
       <c r="T22">
-        <v>0.005224275401749359</v>
+        <v>0.0102215117037777</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.2300916666666667</v>
+        <v>0.4157176666666667</v>
       </c>
       <c r="H23">
-        <v>0.6902750000000001</v>
+        <v>1.247153</v>
       </c>
       <c r="I23">
-        <v>0.02751706005900576</v>
+        <v>0.04231256949165055</v>
       </c>
       <c r="J23">
-        <v>0.02751706005900576</v>
+        <v>0.04231256949165055</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.610992333333333</v>
+        <v>1.760428</v>
       </c>
       <c r="N23">
-        <v>10.832977</v>
+        <v>5.281284</v>
       </c>
       <c r="O23">
-        <v>0.03519603997086906</v>
+        <v>0.01596632480787212</v>
       </c>
       <c r="P23">
-        <v>0.03519603997086906</v>
+        <v>0.01596632480787212</v>
       </c>
       <c r="Q23">
-        <v>0.8308592442972224</v>
+        <v>0.7318410204946667</v>
       </c>
       <c r="R23">
-        <v>7.477733198675001</v>
+        <v>6.586569184452</v>
       </c>
       <c r="S23">
-        <v>0.0009684915457175714</v>
+        <v>0.0006755762279593534</v>
       </c>
       <c r="T23">
-        <v>0.0009684915457175715</v>
+        <v>0.0006755762279593532</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.2300916666666667</v>
+        <v>0.4157176666666667</v>
       </c>
       <c r="H24">
-        <v>0.6902750000000001</v>
+        <v>1.247153</v>
       </c>
       <c r="I24">
-        <v>0.02751706005900576</v>
+        <v>0.04231256949165055</v>
       </c>
       <c r="J24">
-        <v>0.02751706005900576</v>
+        <v>0.04231256949165055</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>49.25961166666666</v>
+        <v>57.378831</v>
       </c>
       <c r="N24">
-        <v>147.778835</v>
+        <v>172.136493</v>
       </c>
       <c r="O24">
-        <v>0.4801293110387352</v>
+        <v>0.520401318794067</v>
       </c>
       <c r="P24">
-        <v>0.4801293110387352</v>
+        <v>0.520401318794067</v>
       </c>
       <c r="Q24">
-        <v>11.33422614773611</v>
+        <v>23.853393739381</v>
       </c>
       <c r="R24">
-        <v>102.008035329625</v>
+        <v>214.680543654429</v>
       </c>
       <c r="S24">
-        <v>0.01321174708794193</v>
+        <v>0.02201951696502056</v>
       </c>
       <c r="T24">
-        <v>0.01321174708794194</v>
+        <v>0.02201951696502055</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.2300916666666667</v>
+        <v>0.4157176666666667</v>
       </c>
       <c r="H25">
-        <v>0.6902750000000001</v>
+        <v>1.247153</v>
       </c>
       <c r="I25">
-        <v>0.02751706005900576</v>
+        <v>0.04231256949165055</v>
       </c>
       <c r="J25">
-        <v>0.02751706005900576</v>
+        <v>0.04231256949165055</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>18.40625766666667</v>
+        <v>11.480313</v>
       </c>
       <c r="N25">
-        <v>55.21877300000001</v>
+        <v>34.440939</v>
       </c>
       <c r="O25">
-        <v>0.1794042525568314</v>
+        <v>0.1041215012792553</v>
       </c>
       <c r="P25">
-        <v>0.1794042525568314</v>
+        <v>0.1041215012792553</v>
       </c>
       <c r="Q25">
-        <v>4.235126503619445</v>
+        <v>4.772568932963</v>
       </c>
       <c r="R25">
-        <v>38.11613853257501</v>
+        <v>42.953120396667</v>
       </c>
       <c r="S25">
-        <v>0.004936677592447368</v>
+        <v>0.004405648258453472</v>
       </c>
       <c r="T25">
-        <v>0.004936677592447369</v>
+        <v>0.004405648258453469</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.835312666666667</v>
+        <v>5.490127666666667</v>
       </c>
       <c r="H26">
-        <v>14.505938</v>
+        <v>16.470383</v>
       </c>
       <c r="I26">
-        <v>0.5782633981503226</v>
+        <v>0.5587960941773784</v>
       </c>
       <c r="J26">
-        <v>0.5782633981503226</v>
+        <v>0.5587960941773784</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.4083256666666666</v>
+        <v>1.571044333333333</v>
       </c>
       <c r="N26">
-        <v>1.224977</v>
+        <v>4.713133</v>
       </c>
       <c r="O26">
-        <v>0.003979916089122618</v>
+        <v>0.01424869640426471</v>
       </c>
       <c r="P26">
-        <v>0.003979916089122619</v>
+        <v>0.01424869640426471</v>
       </c>
       <c r="Q26">
-        <v>1.974382268158444</v>
+        <v>8.625233959993222</v>
       </c>
       <c r="R26">
-        <v>17.769440413426</v>
+        <v>77.627105639939</v>
       </c>
       <c r="S26">
-        <v>0.002301439802049187</v>
+        <v>0.007962115897822378</v>
       </c>
       <c r="T26">
-        <v>0.002301439802049188</v>
+        <v>0.007962115897822376</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>4.835312666666667</v>
+        <v>5.490127666666667</v>
       </c>
       <c r="H27">
-        <v>14.505938</v>
+        <v>16.470383</v>
       </c>
       <c r="I27">
-        <v>0.5782633981503226</v>
+        <v>0.5587960941773784</v>
       </c>
       <c r="J27">
-        <v>0.5782633981503226</v>
+        <v>0.5587960941773784</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>34.29842</v>
       </c>
       <c r="O27">
-        <v>0.1114346094575531</v>
+        <v>0.1036906392681812</v>
       </c>
       <c r="P27">
-        <v>0.1114346094575531</v>
+        <v>0.1036906392681812</v>
       </c>
       <c r="Q27">
-        <v>55.28119489088444</v>
+        <v>62.76756818831778</v>
       </c>
       <c r="R27">
-        <v>497.53075401796</v>
+        <v>564.90811369486</v>
       </c>
       <c r="S27">
-        <v>0.06443855593647871</v>
+        <v>0.05794192422581518</v>
       </c>
       <c r="T27">
-        <v>0.06443855593647872</v>
+        <v>0.05794192422581517</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>4.835312666666667</v>
+        <v>5.490127666666667</v>
       </c>
       <c r="H28">
-        <v>14.505938</v>
+        <v>16.470383</v>
       </c>
       <c r="I28">
-        <v>0.5782633981503226</v>
+        <v>0.5587960941773784</v>
       </c>
       <c r="J28">
-        <v>0.5782633981503226</v>
+        <v>0.5587960941773784</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>19.47855766666667</v>
+        <v>26.63538866666667</v>
       </c>
       <c r="N28">
-        <v>58.435673</v>
+        <v>79.906166</v>
       </c>
       <c r="O28">
-        <v>0.1898558708868887</v>
+        <v>0.2415715194463596</v>
       </c>
       <c r="P28">
-        <v>0.1898558708868887</v>
+        <v>0.2415715194463595</v>
       </c>
       <c r="Q28">
-        <v>94.18491661403046</v>
+        <v>146.2316842312865</v>
       </c>
       <c r="R28">
-        <v>847.664249526274</v>
+        <v>1316.085158081578</v>
       </c>
       <c r="S28">
-        <v>0.1097867010578411</v>
+        <v>0.1349892215311204</v>
       </c>
       <c r="T28">
-        <v>0.1097867010578411</v>
+        <v>0.1349892215311203</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>4.835312666666667</v>
+        <v>5.490127666666667</v>
       </c>
       <c r="H29">
-        <v>14.505938</v>
+        <v>16.470383</v>
       </c>
       <c r="I29">
-        <v>0.5782633981503226</v>
+        <v>0.5587960941773784</v>
       </c>
       <c r="J29">
-        <v>0.5782633981503226</v>
+        <v>0.5587960941773784</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.610992333333333</v>
+        <v>1.760428</v>
       </c>
       <c r="N29">
-        <v>10.832977</v>
+        <v>5.281284</v>
       </c>
       <c r="O29">
-        <v>0.03519603997086906</v>
+        <v>0.01596632480787212</v>
       </c>
       <c r="P29">
-        <v>0.03519603997086906</v>
+        <v>0.01596632480787212</v>
       </c>
       <c r="Q29">
-        <v>17.46027696860289</v>
+        <v>9.664974467974668</v>
       </c>
       <c r="R29">
-        <v>157.142492717426</v>
+        <v>86.98477021177202</v>
       </c>
       <c r="S29">
-        <v>0.02035258167498933</v>
+        <v>0.008921919941006325</v>
       </c>
       <c r="T29">
-        <v>0.02035258167498933</v>
+        <v>0.008921919941006322</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>4.835312666666667</v>
+        <v>5.490127666666667</v>
       </c>
       <c r="H30">
-        <v>14.505938</v>
+        <v>16.470383</v>
       </c>
       <c r="I30">
-        <v>0.5782633981503226</v>
+        <v>0.5587960941773784</v>
       </c>
       <c r="J30">
-        <v>0.5782633981503226</v>
+        <v>0.5587960941773784</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>49.25961166666666</v>
+        <v>57.378831</v>
       </c>
       <c r="N30">
-        <v>147.778835</v>
+        <v>172.136493</v>
       </c>
       <c r="O30">
-        <v>0.4801293110387352</v>
+        <v>0.520401318794067</v>
       </c>
       <c r="P30">
-        <v>0.4801293110387352</v>
+        <v>0.520401318794067</v>
       </c>
       <c r="Q30">
-        <v>238.1856242469144</v>
+        <v>315.017107554091</v>
       </c>
       <c r="R30">
-        <v>2143.67061822223</v>
+        <v>2835.153967986819</v>
       </c>
       <c r="S30">
-        <v>0.2776412069528322</v>
+        <v>0.2907982243468814</v>
       </c>
       <c r="T30">
-        <v>0.2776412069528322</v>
+        <v>0.2907982243468814</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>4.835312666666667</v>
+        <v>5.490127666666667</v>
       </c>
       <c r="H31">
-        <v>14.505938</v>
+        <v>16.470383</v>
       </c>
       <c r="I31">
-        <v>0.5782633981503226</v>
+        <v>0.5587960941773784</v>
       </c>
       <c r="J31">
-        <v>0.5782633981503226</v>
+        <v>0.5587960941773784</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>18.40625766666667</v>
+        <v>11.480313</v>
       </c>
       <c r="N31">
-        <v>55.21877300000001</v>
+        <v>34.440939</v>
       </c>
       <c r="O31">
-        <v>0.1794042525568314</v>
+        <v>0.1041215012792553</v>
       </c>
       <c r="P31">
-        <v>0.1794042525568314</v>
+        <v>0.1041215012792553</v>
       </c>
       <c r="Q31">
-        <v>89.00001084156379</v>
+        <v>63.02838402329301</v>
       </c>
       <c r="R31">
-        <v>801.0000975740741</v>
+        <v>567.255456209637</v>
       </c>
       <c r="S31">
-        <v>0.103742912726132</v>
+        <v>0.05818268823473276</v>
       </c>
       <c r="T31">
-        <v>0.103742912726132</v>
+        <v>0.05818268823473275</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.112636</v>
+        <v>0.8525753333333332</v>
       </c>
       <c r="H32">
-        <v>6.337908000000001</v>
+        <v>2.557726</v>
       </c>
       <c r="I32">
-        <v>0.2526537902784442</v>
+        <v>0.0867768101552908</v>
       </c>
       <c r="J32">
-        <v>0.2526537902784443</v>
+        <v>0.0867768101552908</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.4083256666666666</v>
+        <v>1.571044333333333</v>
       </c>
       <c r="N32">
-        <v>1.224977</v>
+        <v>4.713133</v>
       </c>
       <c r="O32">
-        <v>0.003979916089122618</v>
+        <v>0.01424869640426471</v>
       </c>
       <c r="P32">
-        <v>0.003979916089122619</v>
+        <v>0.01424869640426471</v>
       </c>
       <c r="Q32">
-        <v>0.8626435031240001</v>
+        <v>1.339433646173111</v>
       </c>
       <c r="R32">
-        <v>7.763791528116</v>
+        <v>12.054902815558</v>
       </c>
       <c r="S32">
-        <v>0.001005540884906992</v>
+        <v>0.001236456422833254</v>
       </c>
       <c r="T32">
-        <v>0.001005540884906992</v>
+        <v>0.001236456422833253</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.112636</v>
+        <v>0.8525753333333332</v>
       </c>
       <c r="H33">
-        <v>6.337908000000001</v>
+        <v>2.557726</v>
       </c>
       <c r="I33">
-        <v>0.2526537902784442</v>
+        <v>0.0867768101552908</v>
       </c>
       <c r="J33">
-        <v>0.2526537902784443</v>
+        <v>0.0867768101552908</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>34.29842</v>
       </c>
       <c r="O33">
-        <v>0.1114346094575531</v>
+        <v>0.1036906392681812</v>
       </c>
       <c r="P33">
-        <v>0.1114346094575531</v>
+        <v>0.1036906392681812</v>
       </c>
       <c r="Q33">
-        <v>24.15335894504</v>
+        <v>9.747328954768887</v>
       </c>
       <c r="R33">
-        <v>217.38023050536</v>
+        <v>87.72596059291999</v>
       </c>
       <c r="S33">
-        <v>0.02815437644764895</v>
+        <v>0.008997942918655705</v>
       </c>
       <c r="T33">
-        <v>0.02815437644764896</v>
+        <v>0.008997942918655704</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.112636</v>
+        <v>0.8525753333333332</v>
       </c>
       <c r="H34">
-        <v>6.337908000000001</v>
+        <v>2.557726</v>
       </c>
       <c r="I34">
-        <v>0.2526537902784442</v>
+        <v>0.0867768101552908</v>
       </c>
       <c r="J34">
-        <v>0.2526537902784443</v>
+        <v>0.0867768101552908</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>19.47855766666667</v>
+        <v>26.63538866666667</v>
       </c>
       <c r="N34">
-        <v>58.435673</v>
+        <v>79.906166</v>
       </c>
       <c r="O34">
-        <v>0.1898558708868887</v>
+        <v>0.2415715194463596</v>
       </c>
       <c r="P34">
-        <v>0.1898558708868887</v>
+        <v>0.2415715194463595</v>
       </c>
       <c r="Q34">
-        <v>41.151102154676</v>
+        <v>22.70867537094622</v>
       </c>
       <c r="R34">
-        <v>370.3599193920841</v>
+        <v>204.378078338516</v>
       </c>
       <c r="S34">
-        <v>0.04796780538618735</v>
+        <v>0.02096280588192189</v>
       </c>
       <c r="T34">
-        <v>0.04796780538618736</v>
+        <v>0.02096280588192188</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.112636</v>
+        <v>0.8525753333333332</v>
       </c>
       <c r="H35">
-        <v>6.337908000000001</v>
+        <v>2.557726</v>
       </c>
       <c r="I35">
-        <v>0.2526537902784442</v>
+        <v>0.0867768101552908</v>
       </c>
       <c r="J35">
-        <v>0.2526537902784443</v>
+        <v>0.0867768101552908</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>3.610992333333333</v>
+        <v>1.760428</v>
       </c>
       <c r="N35">
-        <v>10.832977</v>
+        <v>5.281284</v>
       </c>
       <c r="O35">
-        <v>0.03519603997086906</v>
+        <v>0.01596632480787212</v>
       </c>
       <c r="P35">
-        <v>0.03519603997086906</v>
+        <v>0.01596632480787212</v>
       </c>
       <c r="Q35">
-        <v>7.628712399124001</v>
+        <v>1.500897488909333</v>
       </c>
       <c r="R35">
-        <v>68.65841159211601</v>
+        <v>13.508077400184</v>
       </c>
       <c r="S35">
-        <v>0.008892412901431692</v>
+        <v>0.001385506736730429</v>
       </c>
       <c r="T35">
-        <v>0.008892412901431694</v>
+        <v>0.001385506736730429</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.112636</v>
+        <v>0.8525753333333332</v>
       </c>
       <c r="H36">
-        <v>6.337908000000001</v>
+        <v>2.557726</v>
       </c>
       <c r="I36">
-        <v>0.2526537902784442</v>
+        <v>0.0867768101552908</v>
       </c>
       <c r="J36">
-        <v>0.2526537902784443</v>
+        <v>0.0867768101552908</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>49.25961166666666</v>
+        <v>57.378831</v>
       </c>
       <c r="N36">
-        <v>147.778835</v>
+        <v>172.136493</v>
       </c>
       <c r="O36">
-        <v>0.4801293110387352</v>
+        <v>0.520401318794067</v>
       </c>
       <c r="P36">
-        <v>0.4801293110387352</v>
+        <v>0.520401318794067</v>
       </c>
       <c r="Q36">
-        <v>104.06762895302</v>
+        <v>48.91977596610199</v>
       </c>
       <c r="R36">
-        <v>936.60866057718</v>
+        <v>440.277983694918</v>
       </c>
       <c r="S36">
-        <v>0.1213064902577145</v>
+        <v>0.04515876644555572</v>
       </c>
       <c r="T36">
-        <v>0.1213064902577145</v>
+        <v>0.04515876644555572</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.112636</v>
+        <v>0.8525753333333332</v>
       </c>
       <c r="H37">
-        <v>6.337908000000001</v>
+        <v>2.557726</v>
       </c>
       <c r="I37">
-        <v>0.2526537902784442</v>
+        <v>0.0867768101552908</v>
       </c>
       <c r="J37">
-        <v>0.2526537902784443</v>
+        <v>0.0867768101552908</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>18.40625766666667</v>
+        <v>11.480313</v>
       </c>
       <c r="N37">
-        <v>55.21877300000001</v>
+        <v>34.440939</v>
       </c>
       <c r="O37">
-        <v>0.1794042525568314</v>
+        <v>0.1041215012792553</v>
       </c>
       <c r="P37">
-        <v>0.1794042525568314</v>
+        <v>0.1041215012792553</v>
       </c>
       <c r="Q37">
-        <v>38.88572257187601</v>
+        <v>9.787831682745999</v>
       </c>
       <c r="R37">
-        <v>349.9715031468841</v>
+        <v>88.09048514471399</v>
       </c>
       <c r="S37">
-        <v>0.04532716440055472</v>
+        <v>0.009035331749593804</v>
       </c>
       <c r="T37">
-        <v>0.04532716440055473</v>
+        <v>0.009035331749593803</v>
       </c>
     </row>
   </sheetData>
